--- a/Test Case_Sauce Demo.xlsx
+++ b/Test Case_Sauce Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Katalon Studio\sauceDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Playwright\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8BE01-BC39-461C-BB37-E976EF11CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E1E0E-ADD9-4607-A692-EF585A6D5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,9 +586,6 @@
 7. Klik ikon Shopping Cart (keranjang). dibagian pojok kanan</t>
   </si>
   <si>
-    <t>Verifikasi pengurutan 'Price (low to high)' tidak kembali ke default (reset) saat halaman dimuat ulang</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>HP_SCN_003_TC_CART_005</t>
+  </si>
+  <si>
+    <t>Verifikasi pengurutan 'Name (Z - A)' tidak kembali ke default (reset) saat halaman dimuat ulang</t>
   </si>
 </sst>
 </file>
@@ -1043,33 +1043,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1118,13 +1091,31 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,6 +1129,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,16 +1731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1752,16 +1752,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1773,16 +1773,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1794,11 +1794,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1819,9 +1819,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -1923,121 +1923,121 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
@@ -2075,102 +2075,102 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="31">
         <v>3</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="18" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="19"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="19"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="8" t="s">
         <v>60</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="8" t="s">
         <v>60</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="A25" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="A26" s="7">
         <v>11</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
@@ -2536,102 +2536,102 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="31">
         <v>13</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="18" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="19"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="35"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="19"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:15" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>14</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="A33" s="7">
         <v>15</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
@@ -2714,7 +2714,7 @@
         <f>SUM(A33+1)</f>
         <v>16</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="8" t="s">
         <v>51</v>
       </c>
@@ -2756,7 +2756,7 @@
         <f t="shared" ref="A35:A36" si="0">SUM(A34+1)</f>
         <v>17</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
@@ -2798,7 +2798,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
@@ -2837,13 +2837,33 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="O9:O13"/>
     <mergeCell ref="A15:A18"/>
@@ -2860,33 +2880,13 @@
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="L9:L13"/>
     <mergeCell ref="M9:M13"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28 G32:I36">
@@ -2987,10 +2987,10 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,16 +3013,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3034,16 +3034,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3055,16 +3055,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3076,11 +3076,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3101,9 +3101,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -3205,124 +3205,124 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="41">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>123</v>
@@ -3355,107 +3355,107 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="41">
         <v>3</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="18" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="19"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="19"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>141</v>
@@ -3491,10 +3491,10 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>142</v>
@@ -3530,10 +3530,10 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>134</v>
@@ -3570,10 +3570,10 @@
         <f>SUM(A21+1)</f>
         <v>7</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>143</v>
@@ -3610,13 +3610,13 @@
         <f t="shared" ref="A23" si="0">SUM(A22+1)</f>
         <v>8</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>127</v>
@@ -3628,16 +3628,16 @@
         <v>102</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>103</v>
       </c>
       <c r="K23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -3648,14 +3648,14 @@
         <f>SUM(A23+1)</f>
         <v>9</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>140</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>145</v>
@@ -3676,7 +3676,7 @@
         <v>103</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>147</v>
@@ -3692,10 +3692,10 @@
         <f>SUM(A24+1)</f>
         <v>10</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>144</v>
@@ -3716,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>146</v>
@@ -3732,13 +3732,13 @@
         <f t="shared" ref="A26:A28" si="1">SUM(A25+1)</f>
         <v>11</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>127</v>
@@ -3747,19 +3747,19 @@
         <v>20</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -3770,13 +3770,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>127</v>
@@ -3785,19 +3785,19 @@
         <v>21</v>
       </c>
       <c r="H27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3808,13 +3808,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>127</v>
@@ -3832,10 +3832,10 @@
         <v>103</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3845,17 +3845,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="A9:A13"/>
@@ -3872,18 +3873,17 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28">
@@ -3987,16 +3987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4008,16 +4008,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4029,16 +4029,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4050,11 +4050,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4075,9 +4075,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -4183,13 +4183,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>145</v>
@@ -4229,7 +4229,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>144</v>
@@ -4269,7 +4269,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>56</v>

--- a/Test Case_Sauce Demo.xlsx
+++ b/Test Case_Sauce Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Playwright\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E1E0E-ADD9-4607-A692-EF585A6D5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573D79A8-63F2-4F02-8E8A-B2A4907B6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,6 +1043,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,31 +1118,13 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,15 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,16 +1731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1752,16 +1752,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="36">
         <v>46113</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1773,16 +1773,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1794,11 +1794,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1819,9 +1819,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -1923,121 +1923,121 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
@@ -2075,102 +2075,102 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="34" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="35"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="35"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="36"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="8" t="s">
         <v>60</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>60</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="A25" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="A26" s="7">
         <v>11</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
@@ -2536,102 +2536,102 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="15">
         <v>13</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="34" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="35"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="35"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="36"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>14</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="A33" s="7">
         <v>15</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
@@ -2714,7 +2714,7 @@
         <f>SUM(A33+1)</f>
         <v>16</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="8" t="s">
         <v>51</v>
       </c>
@@ -2756,7 +2756,7 @@
         <f t="shared" ref="A35:A36" si="0">SUM(A34+1)</f>
         <v>17</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
@@ -2798,7 +2798,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
@@ -2837,33 +2837,13 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="O9:O13"/>
     <mergeCell ref="A15:A18"/>
@@ -2880,13 +2860,33 @@
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="L9:L13"/>
     <mergeCell ref="M9:M13"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28 G32:I36">
@@ -2987,10 +2987,10 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,16 +3013,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3034,16 +3034,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="36">
         <v>46113</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3055,16 +3055,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3076,11 +3076,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3101,9 +3101,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -3205,122 +3205,122 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="8" t="s">
         <v>154</v>
       </c>
@@ -3355,103 +3355,103 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="37">
         <v>3</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="34" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3491,8 +3491,8 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8" t="s">
         <v>158</v>
       </c>
@@ -3530,8 +3530,8 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8" t="s">
         <v>159</v>
       </c>
@@ -3570,8 +3570,8 @@
         <f>SUM(A21+1)</f>
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8" t="s">
         <v>160</v>
       </c>
@@ -3610,8 +3610,8 @@
         <f t="shared" ref="A23" si="0">SUM(A22+1)</f>
         <v>8</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8" t="s">
         <v>161</v>
       </c>
@@ -3648,10 +3648,10 @@
         <f>SUM(A23+1)</f>
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3692,8 +3692,8 @@
         <f>SUM(A24+1)</f>
         <v>10</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8" t="s">
         <v>180</v>
       </c>
@@ -3732,8 +3732,8 @@
         <f t="shared" ref="A26:A28" si="1">SUM(A25+1)</f>
         <v>11</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="8" t="s">
         <v>181</v>
       </c>
@@ -3770,8 +3770,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8" t="s">
         <v>182</v>
       </c>
@@ -3808,8 +3808,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8" t="s">
         <v>183</v>
       </c>
@@ -3845,18 +3845,17 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="A9:A13"/>
@@ -3873,17 +3872,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28">
@@ -3987,16 +3987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4008,16 +4008,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="36">
         <v>46113</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4029,16 +4029,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4050,11 +4050,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4075,9 +4075,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>

--- a/Test Case_Sauce Demo.xlsx
+++ b/Test Case_Sauce Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Playwright\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573D79A8-63F2-4F02-8E8A-B2A4907B6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E0C3B-0D6E-418D-8F9D-67D9826CC3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="188">
   <si>
     <t>Haruna Elfathin</t>
   </si>
@@ -208,11 +208,6 @@
 2. Password: "invalid_password" </t>
   </si>
   <si>
-    <t>1. Isi field Username dengan "invalid_user"
-2. Isi field Password dengan "invalid_password"
-3. Klik tombol "Login"</t>
-  </si>
-  <si>
     <t>Proses login gagal dan sistem menampilkan pesan error "Epic sadface: Username and password do not match any user in this service"</t>
   </si>
   <si>
@@ -233,16 +228,6 @@
 2. Password: "invalid_password" </t>
   </si>
   <si>
-    <t>1. Isi field Username dengan "invalid_user"
-2. Isi field Password dengan data valid
-3. Klik tombol "Login"</t>
-  </si>
-  <si>
-    <t>1. Isi field Username dengan data valid
-2. Isi field Password dengan "invalid_password" 
-3. Klik tombol "Login"</t>
-  </si>
-  <si>
     <t>Validasi bahwa login gagal menggunakan valid username dengan huruf kapital diawal</t>
   </si>
   <si>
@@ -257,11 +242,6 @@
 2. Password: "Secret_sauce" </t>
   </si>
   <si>
-    <t>1. Isi field Username dengan data valid
-2. Isi field Password dengan data valid kapital diawal "Secret_sauce" 
-3. Klik tombol "Login"</t>
-  </si>
-  <si>
     <t>Validasi bahwa login gagal menggunakan valid password dengan spasi diawal</t>
   </si>
   <si>
@@ -277,16 +257,6 @@
   <si>
     <t xml:space="preserve">1. Username: "standard_user " 
 2. Password: "secret_sauce" </t>
-  </si>
-  <si>
-    <t>1. Isi field Username dengan data valid spasi diakhir
-2. Isi field Password dengan data valid 
-3. Klik tombol "Login"</t>
-  </si>
-  <si>
-    <t>1. Isi field Username dengan data valid spasi di awal
-2. Isi field Password dengan data valid 
-3. Klik tombol "Login"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Username: "standard_user" 
@@ -569,23 +539,6 @@
     <t>Sistem menapilkan jumlah angka (badge) yang muncul pada ikon keranjang belanja sesuai dengan jumlah total produk yang telah ditambahkan oleh pengguna. (satu produk)</t>
   </si>
   <si>
-    <t>1. Akses URL "https://www.saucedemo.com/"
-2. Masukkan valid username
-3. Masukkan valid password
-4. Klik tombol "Login"
-5. Klik pada salah satu tombol "Add to cart" pada produk
-6. Klik ikon Shopping Cart (keranjang) dibagian pojok kanan</t>
-  </si>
-  <si>
-    <t>1. Akses URL "https://www.saucedemo.com/"
-2. Masukkan valid username
-3. Masukkan valid password
-4. Klik tombol "Login"
-5. Klik pada salah satu tombol "Add to cart" pada produk pertama
-6. Klik pada salah satu tombol "Add to cart" pada produk kedua
-7. Klik ikon Shopping Cart (keranjang). dibagian pojok kanan</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -623,15 +576,6 @@
   </si>
   <si>
     <t>HP_SCN_003</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CHRT_001</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CHRT_002</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CHRT_003</t>
   </si>
   <si>
     <t>1. Akses URL "https://www.saucedemo.com/"
@@ -706,22 +650,78 @@
 7. Amati ikon Shopping Cart (keranjang). dibagian pojok kanan</t>
   </si>
   <si>
-    <t>HP_SCN_003_TC_CART_001</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CART_002</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CART_003</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CART_004</t>
-  </si>
-  <si>
-    <t>HP_SCN_003_TC_CART_005</t>
-  </si>
-  <si>
     <t>Verifikasi pengurutan 'Name (Z - A)' tidak kembali ke default (reset) saat halaman dimuat ulang</t>
+  </si>
+  <si>
+    <t>HP_SCN_003_TC_ADTC_001</t>
+  </si>
+  <si>
+    <t>HP_SCN_003_TC_ADTC_002</t>
+  </si>
+  <si>
+    <t>HP_SCN_003_TC_ADTC_003</t>
+  </si>
+  <si>
+    <t>HP_SCN_003_TC_ADTC_004</t>
+  </si>
+  <si>
+    <t>HP_SCN_003_TC_ADTC_005</t>
+  </si>
+  <si>
+    <t>Verifikasi fungsionalitas tombol 'Continue Shopping' untuk mengarahkan kembali pengguna dari halaman keranjang ke halaman daftar produk (Inventory).</t>
+  </si>
+  <si>
+    <t>Validasi respon sistem saat mengakses halaman keranjang dalam kondisi kosong (misal: memastikan tombol Checkout tidak aktif atau menampilkan pesan keranjang kosong)</t>
+  </si>
+  <si>
+    <t>Verifikasi integritas data produk di halaman keranjang untuk memastikan Nama, Harga, dan Deskripsi konsisten dengan data yang dipilih di halaman Inventory.</t>
+  </si>
+  <si>
+    <t>Uji fungsionalitas manajemen keranjang belanja dan validasi alur navigasi Checkout/Continue Shopping untuk memastikan pengalaman belanja pengguna yang konsisten</t>
+  </si>
+  <si>
+    <t>1. Isi field Username dengan "invalid_user"
+2. Isi field Password dengan data valid
+3. Klik tombol "Login"
+4. Klik ikon keranjang belanja.
+5. Klik tombol "Continue Shopping".</t>
+  </si>
+  <si>
+    <t>Sistem mengarahkan pengguna ke halaman "Checkout: Your Information" (halaman pengisian data diri).</t>
+  </si>
+  <si>
+    <t>1. Isi field Username dengan data valid
+2. Isi field Password dengan "invalid_password" 
+3. Klik tombol "Login"
+4. Klik ikon keranjang untuk masuk ke halaman Your Cart.
+5. Periksa keberadaan tombol "Checkout" atau pesan informasi.</t>
+  </si>
+  <si>
+    <t>Tombol "Checkout" tidak merespon/tidak ada, atau muncul pesan informatif bahwa keranjang masih kosong.</t>
+  </si>
+  <si>
+    <t>Produk yang dipilih muncul di dalam daftar keranjang dan seluruh informasi produk (Nama, Harga, Deskripsi) identik dan tidak mengalami perubahan nilai atau teks.</t>
+  </si>
+  <si>
+    <t>1. Isi field Username dengan data valid
+2. Isi field Password dengan data valid kapital diawal "Secret_sauce" 
+3. Klik tombol "Login"
+4. Pilih satu produk (misal: Sauce Labs Backpack) dan catat Nama, Harga, serta Deskripsinya di halaman utama.
+5. Klik tombol "Add to Cart" pada produk tersebut.
+6. Klik ikon keranjang untuk masuk ke halaman Your Cart
+7. Bandingkan Nama, Harga, dan Deskripsi produk di halaman keranjang dengan data yang dicatat di awal</t>
+  </si>
+  <si>
+    <t>CP_SCN_001_TC_CART_004</t>
+  </si>
+  <si>
+    <t>CP_SCN_001_TC_CART_005</t>
+  </si>
+  <si>
+    <t>CP_SCN_001_TC_CART_006</t>
+  </si>
+  <si>
+    <t>CP_SCN_001</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1042,33 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1118,13 +1091,31 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,6 +1129,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1707,7 +1710,7 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
@@ -1731,16 +1734,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1752,16 +1755,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1773,16 +1776,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1794,11 +1797,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1819,9 +1822,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>16</v>
@@ -1923,126 +1926,126 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>25</v>
@@ -2063,7 +2066,7 @@
         <v>34</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>33</v>
@@ -2075,107 +2078,107 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="31">
         <v>3</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="K15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="18" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="19"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="19"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>38</v>
@@ -2196,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>40</v>
@@ -2211,12 +2214,12 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>41</v>
@@ -2237,7 +2240,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>43</v>
@@ -2252,12 +2255,12 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>44</v>
@@ -2278,7 +2281,7 @@
         <v>45</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>46</v>
@@ -2293,12 +2296,12 @@
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>47</v>
@@ -2319,7 +2322,7 @@
         <v>48</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>49</v>
@@ -2334,12 +2337,12 @@
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>52</v>
@@ -2360,7 +2363,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>46</v>
@@ -2375,12 +2378,12 @@
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>53</v>
@@ -2401,7 +2404,7 @@
         <v>54</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>55</v>
@@ -2416,12 +2419,12 @@
       <c r="A25" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>56</v>
@@ -2442,10 +2445,10 @@
         <v>57</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -2457,15 +2460,15 @@
       <c r="A26" s="7">
         <v>11</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>35</v>
@@ -2480,13 +2483,13 @@
         <v>28</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -2498,15 +2501,15 @@
       <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>35</v>
@@ -2521,13 +2524,13 @@
         <v>28</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -2536,110 +2539,110 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="31">
         <v>13</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="18" t="s">
+      <c r="J28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="19"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="35"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="19"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:15" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>14</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>35</v>
@@ -2654,13 +2657,13 @@
         <v>28</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -2672,15 +2675,15 @@
       <c r="A33" s="7">
         <v>15</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>35</v>
@@ -2695,13 +2698,13 @@
         <v>28</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -2714,15 +2717,15 @@
         <f>SUM(A33+1)</f>
         <v>16</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>35</v>
@@ -2737,13 +2740,13 @@
         <v>28</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2756,15 +2759,15 @@
         <f t="shared" ref="A35:A36" si="0">SUM(A34+1)</f>
         <v>17</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>35</v>
@@ -2779,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2798,15 +2801,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>35</v>
@@ -2821,13 +2824,13 @@
         <v>28</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -2837,13 +2840,33 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="O9:O13"/>
     <mergeCell ref="A15:A18"/>
@@ -2860,33 +2883,13 @@
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="L9:L13"/>
     <mergeCell ref="M9:M13"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28 G32:I36">
@@ -2987,10 +2990,10 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,16 +3016,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3034,16 +3037,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3055,16 +3058,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3076,11 +3079,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3101,9 +3104,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -3205,130 +3208,130 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="41">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="B9" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="J9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>20</v>
@@ -3340,13 +3343,13 @@
         <v>28</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -3355,113 +3358,113 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="41">
         <v>3</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="18" t="s">
+      <c r="J15" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="19"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="19"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>139</v>
+      <c r="B19" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>20</v>
@@ -3476,10 +3479,10 @@
         <v>39</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -3491,16 +3494,16 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>20</v>
@@ -3512,13 +3515,13 @@
         <v>28</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -3530,16 +3533,16 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>20</v>
@@ -3551,13 +3554,13 @@
         <v>28</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -3570,16 +3573,16 @@
         <f>SUM(A21+1)</f>
         <v>7</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>20</v>
@@ -3591,13 +3594,13 @@
         <v>28</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -3610,34 +3613,34 @@
         <f t="shared" ref="A23" si="0">SUM(A22+1)</f>
         <v>8</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -3648,20 +3651,20 @@
         <f>SUM(A23+1)</f>
         <v>9</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>140</v>
+      <c r="B24" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>20</v>
@@ -3673,13 +3676,13 @@
         <v>28</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -3692,16 +3695,16 @@
         <f>SUM(A24+1)</f>
         <v>10</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>20</v>
@@ -3713,13 +3716,13 @@
         <v>28</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -3732,34 +3735,34 @@
         <f t="shared" ref="A26:A28" si="1">SUM(A25+1)</f>
         <v>11</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -3770,34 +3773,34 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3808,16 +3811,16 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>21</v>
@@ -3829,13 +3832,13 @@
         <v>28</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3845,17 +3848,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="A9:A13"/>
@@ -3872,18 +3876,17 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28">
@@ -3959,12 +3962,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="1" sqref="A11:A18 B12"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3987,16 +3990,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4008,16 +4011,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
         <v>46113</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4029,16 +4032,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4050,11 +4053,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4075,9 +4078,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -4132,70 +4135,70 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>127</v>
+      <c r="B9" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>20</v>
@@ -4206,39 +4209,39 @@
       <c r="I9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="J9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>SUM(A9+1)</f>
+    <row r="10" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" ref="A10:A11" si="0">SUM(A9+1)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>127</v>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>29</v>
@@ -4246,37 +4249,39 @@
       <c r="I10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
+      <c r="J10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f>SUM(A10+1)</f>
+    <row r="11" spans="1:15" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>29</v>
@@ -4284,275 +4289,25 @@
       <c r="I11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
+      <c r="J11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <f t="shared" ref="A12:A18" si="0">SUM(A11+1)</f>
-        <v>4</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -4561,7 +4316,8 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:I18">
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="G9:I11">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="POSITIVE">
       <formula>NOT(ISERROR(SEARCH("POSITIVE",G9)))</formula>
     </cfRule>
@@ -4569,7 +4325,7 @@
       <formula>NOT(ISERROR(SEARCH("NEGATIVE",G9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O18">
+  <conditionalFormatting sqref="O9:O11">
     <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Retest">
       <formula>NOT(ISERROR(SEARCH("Retest",O9)))</formula>
     </cfRule>
@@ -4593,17 +4349,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G18" xr:uid="{DE36466C-B7FB-46A1-93F1-42F29DC09B14}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G9:G11" xr:uid="{DE36466C-B7FB-46A1-93F1-42F29DC09B14}">
       <formula1>"POSITIVE,NEGATIVE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O9:O18" xr:uid="{001973CF-9AF6-4850-8673-9EADDFC16712}">
-      <formula1>"Not Executed, In Progres, Passed, Failed, Blocked, Skipped, Retest"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H11" xr:uid="{8A025289-0F6A-4F3D-9033-AF55C4546938}">
+      <formula1>"S1,S2,S3,S4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I18" xr:uid="{E947B4CC-B972-48DA-BB7A-3B9D2C31F807}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I11" xr:uid="{E947B4CC-B972-48DA-BB7A-3B9D2C31F807}">
       <formula1>"P1,P2,P3,P4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H18" xr:uid="{8A025289-0F6A-4F3D-9033-AF55C4546938}">
-      <formula1>"S1,S2,S3,S4"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O9:O11" xr:uid="{001973CF-9AF6-4850-8673-9EADDFC16712}">
+      <formula1>"Not Executed, In Progres, Passed, Failed, Blocked, Skipped, Retest"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/Test Case_Sauce Demo.xlsx
+++ b/Test Case_Sauce Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Playwright\OrangeHRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Playwright\SauceDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E0C3B-0D6E-418D-8F9D-67D9826CC3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951D5AC-0AC1-42DA-82F3-5230636E78C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,13 +690,6 @@
     <t>Sistem mengarahkan pengguna ke halaman "Checkout: Your Information" (halaman pengisian data diri).</t>
   </si>
   <si>
-    <t>1. Isi field Username dengan data valid
-2. Isi field Password dengan "invalid_password" 
-3. Klik tombol "Login"
-4. Klik ikon keranjang untuk masuk ke halaman Your Cart.
-5. Periksa keberadaan tombol "Checkout" atau pesan informasi.</t>
-  </si>
-  <si>
     <t>Tombol "Checkout" tidak merespon/tidak ada, atau muncul pesan informatif bahwa keranjang masih kosong.</t>
   </si>
   <si>
@@ -722,6 +715,12 @@
   </si>
   <si>
     <t>CP_SCN_001</t>
+  </si>
+  <si>
+    <t>1. Isi field Username dengan data valid
+2. Klik tombol "Login"
+3. Klik ikon keranjang untuk masuk ke halaman Your Cart.
+4. Periksa keberadaan tombol "Checkout" atau pesan informasi.</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1042,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,31 +1120,13 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,18 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,16 +1733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1755,16 +1754,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="37">
         <v>46113</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1776,16 +1775,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1797,11 +1796,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1822,9 +1821,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -1926,121 +1925,121 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
@@ -2078,102 +2077,102 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="34" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="35"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="35"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="36"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8" t="s">
         <v>59</v>
       </c>
@@ -2214,7 +2213,7 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2254,7 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8" t="s">
         <v>59</v>
       </c>
@@ -2296,7 +2295,7 @@
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
@@ -2337,7 +2336,7 @@
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>59</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="A25" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
@@ -2460,7 +2459,7 @@
       <c r="A26" s="7">
         <v>11</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
@@ -2501,7 +2500,7 @@
       <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2539,102 +2538,102 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="16">
         <v>13</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="34" t="s">
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="35"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="35"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="36"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>14</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="A33" s="7">
         <v>15</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
@@ -2717,7 +2716,7 @@
         <f>SUM(A33+1)</f>
         <v>16</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="8" t="s">
         <v>51</v>
       </c>
@@ -2759,7 +2758,7 @@
         <f t="shared" ref="A35:A36" si="0">SUM(A34+1)</f>
         <v>17</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
@@ -2801,7 +2800,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
@@ -2840,33 +2839,13 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="O9:O13"/>
     <mergeCell ref="A15:A18"/>
@@ -2883,13 +2862,33 @@
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="L9:L13"/>
     <mergeCell ref="M9:M13"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28 G32:I36">
@@ -3016,16 +3015,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3037,16 +3036,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="37">
         <v>46113</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3058,16 +3057,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3079,11 +3078,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3104,9 +3103,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -3208,122 +3207,122 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="38">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="8" t="s">
         <v>146</v>
       </c>
@@ -3358,103 +3357,103 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="34" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="35"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3494,8 +3493,8 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="8" t="s">
         <v>150</v>
       </c>
@@ -3533,8 +3532,8 @@
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8" t="s">
         <v>151</v>
       </c>
@@ -3573,8 +3572,8 @@
         <f>SUM(A21+1)</f>
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8" t="s">
         <v>152</v>
       </c>
@@ -3613,8 +3612,8 @@
         <f t="shared" ref="A23" si="0">SUM(A22+1)</f>
         <v>8</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="8" t="s">
         <v>153</v>
       </c>
@@ -3651,10 +3650,10 @@
         <f>SUM(A23+1)</f>
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3695,8 +3694,8 @@
         <f>SUM(A24+1)</f>
         <v>10</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8" t="s">
         <v>170</v>
       </c>
@@ -3735,8 +3734,8 @@
         <f t="shared" ref="A26:A28" si="1">SUM(A25+1)</f>
         <v>11</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="8" t="s">
         <v>171</v>
       </c>
@@ -3773,8 +3772,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="8" t="s">
         <v>172</v>
       </c>
@@ -3811,8 +3810,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="8" t="s">
         <v>173</v>
       </c>
@@ -3848,18 +3847,17 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="A9:A13"/>
@@ -3876,17 +3874,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G19:I28">
@@ -3964,10 +3963,10 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3990,16 +3989,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4011,16 +4010,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="37">
         <v>46113</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4032,16 +4031,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4053,11 +4052,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4078,9 +4077,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="11">
         <v>0</v>
       </c>
@@ -4135,49 +4134,49 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4185,14 +4184,14 @@
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>177</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>174</v>
@@ -4229,10 +4228,10 @@
         <f t="shared" ref="A10:A11" si="0">SUM(A9+1)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>175</v>
@@ -4253,10 +4252,10 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4269,10 +4268,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>176</v>
@@ -4293,10 +4292,10 @@
         <v>97</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
